--- a/biology/Médecine/1654_en_santé_et_médecine/1654_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1654_en_santé_et_médecine/1654_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1654_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1654_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1654 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1654_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1654_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A Rouen, les hôpitaux Saint-Louis et Saint-Roch sont construits simultanément[1].
-En Italie, le médecin Franco Folli (it) (1624-1685) tente une transfusion sanguine, en présence du  grand-duc de Toscane Ferdinand II de Médicis[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A Rouen, les hôpitaux Saint-Louis et Saint-Roch sont construits simultanément.
+En Italie, le médecin Franco Folli (it) (1624-1685) tente une transfusion sanguine, en présence du  grand-duc de Toscane Ferdinand II de Médicis.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1654_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1654_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Borel (c.1620-1671) fait paraître sa Bibliotheca Chimica[3].
-Francis Glisson (1597-1677) publie son Anatomia hepatis (« Anatomie du foie ») où il décrit la capsule du foie ou capsule de Glisson[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Borel (c.1620-1671) fait paraître sa Bibliotheca Chimica.
+Francis Glisson (1597-1677) publie son Anatomia hepatis (« Anatomie du foie ») où il décrit la capsule du foie ou capsule de Glisson.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1654_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1654_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>26 octobre : Giovanni Maria Lancisi (mort en 1720), médecin italien[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>26 octobre : Giovanni Maria Lancisi (mort en 1720), médecin italien.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1654_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1654_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>22 mars : Théodore de Mayerne (né en 1573), médecin et chimiste suisse.
 29 octobre : René Chartier (né en 1572), médecin français.</t>
